--- a/data/trans_dic/P37-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P37-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,93%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,7%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,12%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,83%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,3%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>24,2; 29,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>31,96; 37,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>30,73; 37,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>51,76; 59,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>27,17; 32,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>31,02; 36,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>32,23; 38,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>62,05; 67,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>26,59; 30,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>32,26; 36,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>32,52; 37,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>58,56; 63,67</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,86%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,74; 8,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>9,25; 12,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>9,15; 11,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>22,71; 27,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>5,18; 7,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>7,62; 10,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>8,7; 11,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>26,63; 44,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,71; 7,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>8,79; 10,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>9,37; 11,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>25,6; 34,86</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,43%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>8,59; 14,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>8,2; 14,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>8,16; 13,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>30,44; 37,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>7,11; 12,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>6,24; 12,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>7,78; 13,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>28,09; 33,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>8,61; 12,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>7,97; 12,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>8,66; 12,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>30,08; 34,8</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,28%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,15%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>12,72; 15,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,38; 19,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>14,44; 17,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>29,62; 33,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>14,51; 17,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,97; 19,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,04; 18,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>35,9; 44,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>14,02; 15,75</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>17,0; 18,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>15,53; 17,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>33,67; 38,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P37-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>55,43%</t>
+          <t>54,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>65,12%</t>
+          <t>64,84%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>61,3%</t>
+          <t>60,69%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,76; 59,93</t>
+          <t>50,86; 59,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>62,05; 67,85</t>
+          <t>61,8; 67,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>58,56; 63,67</t>
+          <t>57,97; 63,04</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>27,32%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,71; 27,09</t>
+          <t>16,1; 25,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,63; 44,64</t>
+          <t>25,44; 54,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,6; 34,86</t>
+          <t>22,66; 38,07</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>33,94%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,0%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>32,1%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,44; 37,69</t>
+          <t>29,79; 37,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,09; 33,99</t>
+          <t>28,04; 33,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,08; 34,8</t>
+          <t>29,67; 34,53</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>28,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>38,28%</t>
+          <t>39,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>35,15%</t>
+          <t>34,15%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,62; 33,48</t>
+          <t>22,94; 31,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,9; 44,84</t>
+          <t>34,58; 49,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>33,67; 38,77</t>
+          <t>30,92; 40,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P37-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,2; 29,59</t>
+          <t>23,93; 29,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,96; 37,93</t>
+          <t>31,74; 38,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,73; 37,22</t>
+          <t>30,81; 37,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,86; 59,11</t>
+          <t>50,44; 58,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,17; 32,25</t>
+          <t>27,1; 32,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,02; 36,27</t>
+          <t>30,92; 36,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,23; 38,79</t>
+          <t>32,17; 38,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,8; 67,54</t>
+          <t>61,93; 67,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,59; 30,29</t>
+          <t>26,56; 30,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>32,26; 36,3</t>
+          <t>32,16; 36,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32,52; 37,26</t>
+          <t>32,47; 37,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>57,97; 63,04</t>
+          <t>58,32; 63,03</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,74; 8,38</t>
+          <t>5,86; 8,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,25; 12,1</t>
+          <t>9,34; 12,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,15; 11,89</t>
+          <t>9,07; 11,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,1; 25,34</t>
+          <t>15,27; 25,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 7,58</t>
+          <t>5,08; 7,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,62; 10,47</t>
+          <t>7,52; 10,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,7; 11,69</t>
+          <t>8,71; 11,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,44; 54,76</t>
+          <t>25,08; 50,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,71; 7,53</t>
+          <t>5,8; 7,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,79; 10,91</t>
+          <t>8,88; 10,93</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9,37; 11,31</t>
+          <t>9,29; 11,25</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,66; 38,07</t>
+          <t>22,79; 38,05</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,59; 14,2</t>
+          <t>8,75; 14,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,2; 14,59</t>
+          <t>8,31; 14,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,16; 13,61</t>
+          <t>8,48; 14,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,79; 37,31</t>
+          <t>29,26; 37,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,11; 12,37</t>
+          <t>6,9; 12,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,24; 12,37</t>
+          <t>6,62; 12,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,78; 13,27</t>
+          <t>7,79; 13,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>28,04; 33,93</t>
+          <t>28,02; 34,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,61; 12,55</t>
+          <t>8,69; 12,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 12,14</t>
+          <t>8,05; 12,43</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,62</t>
+          <t>8,79; 12,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>29,67; 34,53</t>
+          <t>29,61; 34,78</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,72; 15,11</t>
+          <t>12,68; 14,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,38; 19,22</t>
+          <t>16,37; 19,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,44; 17,02</t>
+          <t>14,44; 17,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,94; 31,85</t>
+          <t>22,37; 31,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,51; 17,12</t>
+          <t>14,55; 17,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,97; 19,67</t>
+          <t>17,02; 19,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,04; 18,73</t>
+          <t>15,98; 18,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,58; 49,29</t>
+          <t>34,66; 50,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,02; 15,75</t>
+          <t>14,07; 15,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 18,89</t>
+          <t>17,01; 18,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>15,53; 17,45</t>
+          <t>15,56; 17,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,92; 40,12</t>
+          <t>30,59; 40,65</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha vacunado de la gripe en la última campaña</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>734</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1406</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>274482</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>341597</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>255917</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>281191</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>390579</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>449268</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>353280</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>488370</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>665061</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>790864</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>609196</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>769562</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>246929; 302932</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>309030; 371751</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>232451; 281921</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>259760; 301967</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>356441; 423980</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>413583; 486670</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>319968; 386981</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>466434; 507548</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>623242; 709817</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>743416; 834106</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>567974; 652224</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>739509; 799327</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1539</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>117311</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>209883</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>216678</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>504076</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>99953</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>157109</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>202502</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>732865</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>217264</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>366992</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>419180</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1236941</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>99101; 142403</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>183140; 241298</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>188290; 244034</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>349645; 577249</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>80557; 121769</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>132142; 184696</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>173240; 233231</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>561342; 1130854</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>190074; 247422</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>330244; 406482</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>377434; 457440</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1031853; 1723127</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>62693</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>52691</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>58844</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>215525</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>44810</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>41866</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>56059</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>204094</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>107503</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>94558</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>114904</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>419620</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>48200; 78484</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>39893; 71512</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>46395; 76987</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>189203; 240572</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>32892; 59500</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30371; 56808</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>42778; 72251</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>185075; 225096</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>89230; 130873</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>75602; 116689</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>96354; 140036</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>387021; 454630</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1323</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2232</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1149</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3555</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>454486</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>604171</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>531438</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1000793</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>535342</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>648242</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>611841</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1425330</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>989828</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1252413</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1143279</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2426123</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>415220; 490166</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>559132; 653680</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>487594; 575651</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>772265; 1098645</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>491392; 576847</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>604630; 701873</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>564447; 655983</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1265437; 1832578</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>936157; 1051755</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1185392; 1319694</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1075348; 1205669</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2172940; 2887364</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>